--- a/notebooks/sub_new_nodes911.xlsx
+++ b/notebooks/sub_new_nodes911.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C', 'D', 'E')</t>
+          <t>A, B, C, D, E</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C', 'D', 'E')</t>
+          <t>A, B, C, D, E</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>('A', 'B')</t>
+          <t>A, B</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C')</t>
+          <t>A, B, C</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C', 'D', 'E')</t>
+          <t>A, B, C, D, E</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>('C', 'D')</t>
+          <t>C, D</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -6002,7 +6002,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>('A', 'B', 'C', 'D', 'E')</t>
+          <t>A, B, C, D, E</t>
         </is>
       </c>
     </row>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>('D', 'E')</t>
+          <t>D, E</t>
         </is>
       </c>
     </row>
